--- a/src/test/resources/spreadsheet_examples/test_spreadsheet_merged_cells.xlsx
+++ b/src/test/resources/spreadsheet_examples/test_spreadsheet_merged_cells.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\stefbg\projects\hard-data-refinery\src\test\resources\spreadsheet_examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\stefbg\projects\refinery\src\test\resources\spreadsheet_examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6272CB-BB64-455F-96AF-7475C7BB1CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B50549-771C-41AB-B93A-A6267D8F2D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23136" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{870AAEF9-2DE1-494F-88CE-485EB3D1B417}"/>
+    <workbookView xWindow="-23136" yWindow="-3078" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{870AAEF9-2DE1-494F-88CE-485EB3D1B417}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>string</t>
   </si>
@@ -67,6 +68,12 @@
   </si>
   <si>
     <t>same</t>
+  </si>
+  <si>
+    <t>opt1</t>
+  </si>
+  <si>
+    <t>opt2</t>
   </si>
 </sst>
 </file>
@@ -110,11 +117,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -437,16 +447,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B375211-7F82-3148-A5B5-8DEC9DA19438}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,12 +466,12 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -478,7 +488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -495,7 +505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -506,8 +516,8 @@
         <v>44199</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2">
@@ -516,13 +526,13 @@
       <c r="C5" s="3">
         <v>44200</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -539,4 +549,123 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32648BAF-F30F-43E8-B3F0-6EB932E4C19F}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44197</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44198</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44200</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44201</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>